--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -32,7 +32,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Ignacio Baena,  Bruno Giuffra,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper</t>
+          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -112,7 +112,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Ignacio Baena,  Bruno Giuffra,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper</t>
+          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
         </r>
       </text>
     </comment>
@@ -144,7 +144,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -160,7 +160,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -176,7 +176,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
         </r>
       </text>
     </comment>
@@ -192,7 +192,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -208,7 +208,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -224,7 +224,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Fiorella de Andrea,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
         </r>
       </text>
     </comment>
@@ -240,7 +240,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -256,7 +256,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -272,7 +272,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Fiorella de Andrea,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -288,7 +288,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres</t>
+          <t xml:space="preserve"> Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -304,7 +304,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Gisella Ocampo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -320,7 +320,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Fiorella de Andrea,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand,  Jose del Rio,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  prueba145 prueba145,  prueba145 prueba145,  pru3 pru3</t>
         </r>
       </text>
     </comment>
@@ -336,7 +336,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres</t>
+          <t xml:space="preserve"> Fernando de la Flor,  Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -352,7 +352,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Gisella Ocampo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -368,7 +368,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Fiorella de Andrea,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand,  Jose del Rio,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  prueba145 prueba145,  prueba145 prueba145,  pru3 pru3</t>
         </r>
       </text>
     </comment>
@@ -384,7 +384,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres</t>
+          <t xml:space="preserve"> Fernando de la Flor,  Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -400,7 +400,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Gisella Ocampo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -416,7 +416,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Fiorella de Andrea,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand,  Jose del Rio,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  prueba145 prueba145,  prueba145 prueba145,  pru3 pru3</t>
         </r>
       </text>
     </comment>
@@ -432,7 +432,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres</t>
+          <t xml:space="preserve"> Fernando de la Flor,  Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -448,7 +448,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Gisella Ocampo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -464,7 +464,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Raúl Barrios,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Fiorella de Andrea,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand,  Jose del Rio,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  prueba145 prueba145,  prueba145 prueba145,  pru3 pru3</t>
         </r>
       </text>
     </comment>
@@ -480,7 +480,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres</t>
+          <t xml:space="preserve"> Fernando de la Flor,  Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -496,7 +496,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Gisella Ocampo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -512,7 +512,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Corina Segundo,  Raúl Barrios,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Fiorella de Andrea,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand,  Jose del Rio,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  prueba145 prueba145,  prueba145 prueba145,  pru3 pru3</t>
         </r>
       </text>
     </comment>
@@ -528,7 +528,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres</t>
+          <t xml:space="preserve"> Fernando de la Flor,  Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -544,7 +544,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Gisella Ocampo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -560,7 +560,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Corina Segundo,  Raúl Barrios,  Pedro Gomes,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Fiorella de Andrea,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand,  Jose del Rio,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  prueba145 prueba145,  prueba145 prueba145,  pru3 pru3</t>
         </r>
       </text>
     </comment>
@@ -576,7 +576,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres</t>
+          <t xml:space="preserve"> Fernando de la Flor,  Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -592,7 +592,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Gisella Ocampo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -672,7 +672,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
         </r>
       </text>
     </comment>
@@ -688,7 +688,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
         </r>
       </text>
     </comment>
@@ -704,7 +704,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
         </r>
       </text>
     </comment>
@@ -720,7 +720,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
         </r>
       </text>
     </comment>
@@ -736,7 +736,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
         </r>
       </text>
     </comment>
@@ -752,7 +752,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
         </r>
       </text>
     </comment>
@@ -768,7 +768,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
         </r>
       </text>
     </comment>
@@ -784,7 +784,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
         </r>
       </text>
     </comment>
@@ -800,7 +800,23 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Diego  Roca,  Martin Bedoya</t>
+          <t xml:space="preserve"> Ramiro Espinosa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Harmsen,  Walter Funcke</t>
         </r>
       </text>
     </comment>
@@ -816,23 +832,71 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Guillermo Guzmán-Barrón</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Graham Searles,  Joan Gomez</t>
+          <t xml:space="preserve"> Jorge  Yzusqui</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Verónica Valderrama,  Eduardo Elias,  Robert McDonald,  Maria Teresa Normand,  Franco Pipoli,  Victor Gobitz,  Fernando Harten,  Sandro Tonani,  Marina Morvelli,  Rossana Arnaiz,  Fernando Gonzalez,  Eduardo Scerpella,  Veronica Arosemena,  Estuardo Masias,  Fabrizio Balli,  Rodrigo Contreras,  Dante Conetta,  Sebastiaan Saverys,  Ernesto Balarezo,  Alfredo Garcia Pye,  Maruja Aguirre,  Carlos  Salhuana,  Luis Felipe  Arizmendi,  Francisco Capurro,  Cesar Loo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Juan Perez,  Claudia Martinez,  Sandra Nicolini,  Marisol Quiroga,  Araceli Moreyra,  Anamaria Daza,  Sally Vurnbrand,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco,  Fiorella de Andrea</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Fernando Correa</t>
         </r>
       </text>
     </comment>
@@ -1611,7 +1675,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
-    <t>2016 - 08/06/2017</t>
+    <t>2017 - 08/06/2017</t>
   </si>
   <si>
     <t>Top Executive</t>
@@ -3566,7 +3630,7 @@
     <row r="4" spans="1:24" customHeight="1" ht="46.5">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -3762,13 +3826,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="69">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="C9" s="70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="71">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="72" t="str">
         <f>B9+C9</f>
@@ -3804,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="78">
         <v>0</v>
@@ -3836,13 +3900,13 @@
         <v>26</v>
       </c>
       <c r="B10" s="69">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C10" s="70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="71">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="72" t="str">
         <f>B10+C10</f>
@@ -3878,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="78">
         <v>0</v>
@@ -3910,13 +3974,13 @@
         <v>27</v>
       </c>
       <c r="B11" s="69">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C11" s="70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="71">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E11" s="72" t="str">
         <f>B11+C11</f>
@@ -3984,13 +4048,13 @@
         <v>28</v>
       </c>
       <c r="B12" s="69">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="C12" s="70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="71">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E12" s="72" t="str">
         <f>B12+C12</f>
@@ -4061,13 +4125,13 @@
         <v>30</v>
       </c>
       <c r="B13" s="69">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C13" s="70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="71">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E13" s="72" t="str">
         <f>B13+C13</f>
@@ -4078,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="74">
         <v>0</v>
@@ -4103,16 +4167,16 @@
         <v>0</v>
       </c>
       <c r="N13" s="69">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O13" s="78">
         <v>0</v>
       </c>
       <c r="P13" s="79">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="Q13" s="80">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R13" s="81" t="str">
         <f>P13-N13</f>
@@ -4135,13 +4199,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="69">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C14" s="70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14" s="71">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E14" s="72" t="str">
         <f>B14+C14</f>
@@ -4152,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H14" s="74">
         <v>0</v>
@@ -4177,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="78">
         <v>0</v>
@@ -4209,13 +4273,13 @@
         <v>32</v>
       </c>
       <c r="B15" s="69">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C15" s="70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="71">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E15" s="72" t="str">
         <f>B15+C15</f>
@@ -4226,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="74">
         <v>0</v>
@@ -4283,13 +4347,13 @@
         <v>33</v>
       </c>
       <c r="B16" s="69">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="C16" s="70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D16" s="71">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E16" s="72" t="str">
         <f>B16+C16</f>
@@ -4300,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="74">
         <v>0</v>
@@ -4357,13 +4421,13 @@
         <v>34</v>
       </c>
       <c r="B17" s="69">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="C17" s="70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D17" s="71">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E17" s="72" t="str">
         <f>B17+C17</f>
@@ -4374,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" s="74">
         <v>0</v>
@@ -4431,13 +4495,13 @@
         <v>35</v>
       </c>
       <c r="B18" s="69">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C18" s="70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D18" s="71">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E18" s="72" t="str">
         <f>B18+C18</f>
@@ -4448,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="74">
         <v>0</v>
@@ -4473,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" s="78">
         <v>0</v>
@@ -4505,13 +4569,13 @@
         <v>36</v>
       </c>
       <c r="B19" s="69">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C19" s="70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="71">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E19" s="72" t="str">
         <f>B19+C19</f>
@@ -4522,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="74">
         <v>0</v>
@@ -4579,13 +4643,13 @@
         <v>37</v>
       </c>
       <c r="B20" s="69">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C20" s="70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20" s="71">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E20" s="103" t="str">
         <f>B20+C20</f>
@@ -4596,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="70">
         <v>0</v>
@@ -4650,7 +4714,7 @@
     </row>
     <row r="21" spans="1:24" customHeight="1" ht="33.75">
       <c r="A21" s="125">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -1438,7 +1438,7 @@
     <t>CINTHYA RUIZ DE SOMOCURCIO</t>
   </si>
   <si>
-    <t>2017 - 03/07/2017</t>
+    <t>2017 - 04/07/2017</t>
   </si>
   <si>
     <t>Top Executive</t>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -318,7 +318,7 @@
     <t>CINTHYA RUIZ DE SOMOCURCIO</t>
   </si>
   <si>
-    <t>2016 - 09/07/2017</t>
+    <t>2016 - 10/07/2017</t>
   </si>
   <si>
     <t>Top Executive</t>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -32,7 +32,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  Edgardo Vargas,  Rafael Treistman,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Enrique Garland,  Fernando Herrera,  Guillermo Winter</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Ignacio Baena,  Bruno Giuffra,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper</t>
+          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  Edgardo Vargas,  Rafael Treistman,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -112,7 +112,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Ignacio Baena,  Bruno Giuffra,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper</t>
+          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  Edgardo Vargas,  Rafael Treistman,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -144,7 +144,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -160,7 +160,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -176,7 +176,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  Edgardo Vargas,  Rafael Treistman,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -192,7 +192,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo</t>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -208,7 +208,103 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  pru3 pru3,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando de la Flor,  Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -276,6 +372,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="G13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N9" authorId="0">
       <text>
         <r>
@@ -288,7 +416,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Martin Bedoya,  Diego  Roca</t>
+          <t xml:space="preserve"> Ramiro Espinosa</t>
         </r>
       </text>
     </comment>
@@ -304,7 +432,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Igor Salazar</t>
+          <t xml:space="preserve"> Michel Michell,  Carlos Caro,  Daniel Vaillant,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Jorge Fernández,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic</t>
         </r>
       </text>
     </comment>
@@ -320,7 +448,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Martin Bedoya,  Diego  Roca</t>
+          <t xml:space="preserve"> Ramiro Espinosa,  Alejandro Harmsen,  Walter Funcke</t>
         </r>
       </text>
     </comment>
@@ -336,7 +464,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Igor Salazar,  Mirella Velásquez,  José Orrego</t>
+          <t xml:space="preserve"> Michel Michell,  Tomás Vega,  Carlos Caro,  Daniel Vaillant,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -352,7 +480,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Guillermo Guzmán-Barrón,  Martin Bedoya,  Diego  Roca</t>
+          <t xml:space="preserve"> Ramiro Espinosa,  Jorge  Yzusqui,  Alejandro Harmsen,  Walter Funcke</t>
         </r>
       </text>
     </comment>
@@ -368,7 +496,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Igor Salazar,  Mirella Velásquez,  José Orrego</t>
+          <t xml:space="preserve"> Michel Michell,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -384,7 +512,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Guillermo Guzmán-Barrón,  Martin Bedoya,  Diego  Roca</t>
+          <t xml:space="preserve"> Ramiro Espinosa,  Jorge  Yzusqui,  Alejandro Harmsen,  Walter Funcke</t>
         </r>
       </text>
     </comment>
@@ -400,7 +528,71 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Bruno Novella,  Igor Salazar,  Mirella Velásquez,  José Orrego</t>
+          <t xml:space="preserve"> Michel Michell,  David Testing 1,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Robert McDonald,  Estuardo Masias,  Prueba Prueba,  Tomás Vega,  Fabrizio Balli,  Rodrigo Contreras,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Dante Conetta,  Jorge  Yzusqui,  Sebastiaan Saverys,  Ernesto Balarezo,  Victor Gobitz,  Alfredo Garcia Pye,  Maruja Aguirre,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Eduardo Scerpella,  Carlos  Salhuana,  Luis Felipe  Arizmendi,  Francisco Capurro,  Alejandro Harmsen,  Walter Funcke,  Cesar Loo,  Verónica Valderrama,  Marina Morvelli,  Rossana Arnaiz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Michel Michell,  David Testing 1,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Perez,  Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Estuardo Masias,  Prueba Prueba,  Tomás Vega,  Fabrizio Balli,  Rodrigo Contreras,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Dante Conetta,  Jorge  Yzusqui,  Sebastiaan Saverys,  Ernesto Balarezo,  Victor Gobitz,  Alfredo Garcia Pye,  Maruja Aguirre,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Eduardo Scerpella,  Carlos  Salhuana,  Luis Felipe  Arizmendi,  Francisco Capurro,  Alejandro Harmsen,  Walter Funcke,  Cesar Loo,  Verónica Valderrama,  Marina Morvelli,  Rossana Arnaiz</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Michel Michell,  David Testing 1,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  pru3 pru3,  Tomás Vega,  Juan Antonio Rozas,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -414,7 +606,7 @@
     <t>CINTHYA RUIZ DE SOMOCURCIO</t>
   </si>
   <si>
-    <t>2016 - 08/08/2017</t>
+    <t>2017 - 25/08/2017</t>
   </si>
   <si>
     <t>Top Executive</t>
@@ -2371,7 +2563,7 @@
     <row r="4" spans="1:24" customHeight="1" ht="46.5">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2567,13 +2759,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="69">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C9" s="70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="71">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E9" s="72" t="str">
         <f>B9+C9</f>
@@ -2609,13 +2801,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" s="78">
         <v>0</v>
       </c>
       <c r="P9" s="79">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="80">
         <v>0</v>
@@ -2641,13 +2833,13 @@
         <v>27</v>
       </c>
       <c r="B10" s="69">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="C10" s="70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" s="71">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E10" s="72" t="str">
         <f>B10+C10</f>
@@ -2683,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="78">
         <v>0</v>
       </c>
       <c r="P10" s="79">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="80">
         <v>0</v>
@@ -2715,13 +2907,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="69">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C11" s="70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="71">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11" s="72" t="str">
         <f>B11+C11</f>
@@ -2757,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" s="78">
         <v>0</v>
       </c>
       <c r="P11" s="79">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="80">
         <v>0</v>
@@ -2789,13 +2981,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="69">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C12" s="70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" s="71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12" s="72" t="str">
         <f>B12+C12</f>
@@ -2831,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" s="78">
         <v>0</v>
       </c>
       <c r="P12" s="79">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="Q12" s="80">
         <v>0</v>
@@ -2866,13 +3058,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="69">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C13" s="70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D13" s="71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E13" s="72" t="str">
         <f>B13+C13</f>
@@ -2883,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H13" s="74">
         <v>0</v>
@@ -2908,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="69">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O13" s="78">
         <v>0</v>
       </c>
       <c r="P13" s="79">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="80">
         <v>0</v>
@@ -2940,13 +3132,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="69">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="C14" s="70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E14" s="72" t="str">
         <f>B14+C14</f>
@@ -2957,7 +3149,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="74">
         <v>0</v>
@@ -2982,13 +3174,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="69">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O14" s="78">
         <v>0</v>
       </c>
       <c r="P14" s="79">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="80">
         <v>0</v>
@@ -3455,7 +3647,7 @@
     </row>
     <row r="21" spans="1:24" customHeight="1" ht="33.75">
       <c r="A21" s="125">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -606,7 +606,7 @@
     <t>CINTHYA RUIZ DE SOMOCURCIO</t>
   </si>
   <si>
-    <t>2017 - 25/08/2017</t>
+    <t>2017 - 01/09/2017</t>
   </si>
   <si>
     <t>Top Executive</t>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -32,7 +32,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -176,7 +176,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -224,7 +224,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Jose del Rio,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -272,7 +272,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Jose del Rio,  apli4 apli4,  apli7 apli7,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  pru3 pru3,  apli6 apli6,  aplicante12 aplicante12,  apli3 apli3,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  pru3 pru3,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -528,7 +528,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Michel Michell,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1</t>
+          <t xml:space="preserve"> Michel Michell,  David Testing 1,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -560,7 +560,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Michel Michell,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Jose del Rio</t>
+          <t xml:space="preserve"> Michel Michell,  David Testing 1,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -592,7 +592,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Michel Michell,  Tomás Vega,  Juan Antonio Rozas,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  David Testing 1,  Jose del Rio,  apli4 apli4,  apli7 apli7,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  pru3 pru3,  apli6 apli6,  aplicante12 aplicante12,  apli3 apli3</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Michel Michell,  David Testing 1,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  pru3 pru3,  Tomás Vega,  Juan Antonio Rozas,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -606,7 +606,7 @@
     <t>RODOLFO BAQUERIZO</t>
   </si>
   <si>
-    <t>2017 - 04/10/2017</t>
+    <t>2017 - 17/10/2017</t>
   </si>
   <si>
     <t>Top Executive</t>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -32,7 +32,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Eduardo Elias,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Jorge  Yzusqui,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Leandro Mariátegui,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Sandro Tonani,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Marina Morvelli,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Eduardo Elias,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Jorge  Yzusqui,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Leandro Mariátegui,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Sandro Tonani,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Marina Morvelli,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -112,7 +112,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Eduardo Elias,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Leandro Mariátegui,  Jose Hidalgo,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -144,7 +144,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -160,7 +160,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -176,7 +176,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -192,7 +192,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -208,7 +208,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -224,7 +224,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Sergio Borasino,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Martin Kern,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -240,7 +240,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -256,7 +256,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -272,7 +272,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Jorge Luis Feliú,  Eduardo Wichtel,  Michel Michell,  Jorge Ramos,  Humberto Chávez,  Rolando Giha,  David Testing 1,  aplicantepru aplicantepru,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  pru3 pru3,  asdfasdf asdfasdfasdf,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  José Ackerman,  Mario Campodónico,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Reynaldo Llosa,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiery,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Piero Bengoa,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Katherina Exebio,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Juan  Wu,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Sergio Borasino,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Martin Kern,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
         </r>
       </text>
     </comment>
@@ -288,7 +288,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando de la Flor,  Fernando de la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Gonzalo Barandiarán,  Carlos Campillo,  Carlos Guiulfo,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
         </r>
       </text>
     </comment>
@@ -304,7 +304,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Christian Ponce,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -368,7 +368,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese</t>
         </r>
       </text>
     </comment>
@@ -384,7 +384,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese</t>
         </r>
       </text>
     </comment>
@@ -400,7 +400,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese</t>
         </r>
       </text>
     </comment>
@@ -416,7 +416,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Ramiro Espinosa</t>
+          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Victor Gobitz,  Fernando Harten,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón</t>
         </r>
       </text>
     </comment>
@@ -432,7 +432,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Michel Michell,  Carlos Caro,  Daniel Vaillant,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Jorge Fernández,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic</t>
+          <t xml:space="preserve"> Carlos Caro,  Daniel Vaillant,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Diego  Roca,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -448,7 +448,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Ramiro Espinosa,  Alejandro Harmsen,  Walter Funcke</t>
+          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Victor Gobitz,  Fernando Harten,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón</t>
         </r>
       </text>
     </comment>
@@ -464,7 +464,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Michel Michell,  Tomás Vega,  Carlos Caro,  Daniel Vaillant,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
+          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Daniel Vaillant,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -480,7 +480,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Ramiro Espinosa,  Jorge  Yzusqui,  Alejandro Harmsen,  Walter Funcke</t>
+          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Jorge  Yzusqui,  Victor Gobitz,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli</t>
         </r>
       </text>
     </comment>
@@ -496,7 +496,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Michel Michell,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
+          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Santiago Reyna,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -512,7 +512,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Ramiro Espinosa,  Jorge  Yzusqui,  Alejandro Harmsen,  Walter Funcke</t>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -528,7 +528,23 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Michel Michell,  David Testing 1,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
+          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Ronald Añazco</t>
         </r>
       </text>
     </comment>
@@ -544,7 +560,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Robert McDonald,  Estuardo Masias,  Prueba Prueba,  Tomás Vega,  Fabrizio Balli,  Rodrigo Contreras,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Dante Conetta,  Jorge  Yzusqui,  Sebastiaan Saverys,  Ernesto Balarezo,  Victor Gobitz,  Alfredo Garcia Pye,  Maruja Aguirre,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Eduardo Scerpella,  Carlos  Salhuana,  Luis Felipe  Arizmendi,  Francisco Capurro,  Alejandro Harmsen,  Walter Funcke,  Cesar Loo,  Verónica Valderrama,  Marina Morvelli,  Rossana Arnaiz</t>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -560,7 +576,23 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Michel Michell,  David Testing 1,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
+          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Ronald Añazco</t>
         </r>
       </text>
     </comment>
@@ -576,7 +608,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Perez,  Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Estuardo Masias,  Prueba Prueba,  Tomás Vega,  Fabrizio Balli,  Rodrigo Contreras,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Dante Conetta,  Jorge  Yzusqui,  Sebastiaan Saverys,  Ernesto Balarezo,  Victor Gobitz,  Alfredo Garcia Pye,  Maruja Aguirre,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Eduardo Scerpella,  Carlos  Salhuana,  Luis Felipe  Arizmendi,  Francisco Capurro,  Alejandro Harmsen,  Walter Funcke,  Cesar Loo,  Verónica Valderrama,  Marina Morvelli,  Rossana Arnaiz</t>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -592,7 +624,23 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Juan Alberto Forsyth,  Jorge Luis Feliú,  Michel Michell,  David Testing 1,  aplicante12 aplicante12,  apli3 apli3,  apli4 apli4,  apli6 apli6,  apli7 apli7,  pru3 pru3,  Tomás Vega,  Juan Antonio Rozas,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  José Luis Hidalgo,  Jorge Carbajal,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Jorge Fernández,  Eduardo Arnillas,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
+          <t xml:space="preserve"> Juan  Wu,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Ronald Añazco</t>
         </r>
       </text>
     </comment>
@@ -603,10 +651,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
-    <t>RODOLFO BAQUERIZO</t>
+    <t>MANOLO VEGA</t>
   </si>
   <si>
-    <t>2017 - 17/10/2017</t>
+    <t>2017 - 02/11/2017</t>
   </si>
   <si>
     <t>Top Executive</t>
@@ -2759,13 +2807,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="69">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C9" s="70">
         <v>8</v>
       </c>
       <c r="D9" s="71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="72" t="str">
         <f>B9+C9</f>
@@ -2801,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="69">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O9" s="78">
         <v>0</v>
       </c>
       <c r="P9" s="79">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="80">
         <v>0</v>
@@ -2833,13 +2881,13 @@
         <v>27</v>
       </c>
       <c r="B10" s="69">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C10" s="70">
         <v>8</v>
       </c>
       <c r="D10" s="71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="72" t="str">
         <f>B10+C10</f>
@@ -2875,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="69">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="O10" s="78">
         <v>0</v>
       </c>
       <c r="P10" s="79">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="80">
         <v>0</v>
@@ -2907,13 +2955,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="69">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C11" s="70">
         <v>8</v>
       </c>
       <c r="D11" s="71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="72" t="str">
         <f>B11+C11</f>
@@ -2949,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="69">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O11" s="78">
         <v>0</v>
       </c>
       <c r="P11" s="79">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="80">
         <v>0</v>
@@ -2987,7 +3035,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="72" t="str">
         <f>B12+C12</f>
@@ -2998,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="74">
         <v>0</v>
@@ -3023,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="69">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O12" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="79">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="80">
         <v>0</v>
@@ -3058,13 +3106,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="69">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C13" s="70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="72" t="str">
         <f>B13+C13</f>
@@ -3075,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="74">
         <v>0</v>
@@ -3100,13 +3148,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="69">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O13" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="79">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="80">
         <v>0</v>
@@ -3132,13 +3180,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="69">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C14" s="70">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D14" s="71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="72" t="str">
         <f>B14+C14</f>
@@ -3149,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" s="74">
         <v>0</v>
@@ -3174,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="69">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="O14" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="79">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="80">
         <v>0</v>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -654,7 +654,7 @@
     <t>MANOLO VEGA</t>
   </si>
   <si>
-    <t>2017 - 02/11/2017</t>
+    <t>2017 - 11/11/2017</t>
   </si>
   <si>
     <t>Top Executive</t>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -654,7 +654,7 @@
     <t>MANOLO VEGA</t>
   </si>
   <si>
-    <t>2017 - 11/11/2017</t>
+    <t>2017 - 14/11/2017</t>
   </si>
   <si>
     <t>Top Executive</t>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -14,647 +14,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Eduardo Elias,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Jorge  Yzusqui,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Leandro Mariátegui,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Sandro Tonani,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Marina Morvelli,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Eduardo Elias,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Jorge  Yzusqui,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Leandro Mariátegui,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Sandro Tonani,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Marina Morvelli,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Eduardo Elias,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Leandro Mariátegui,  Jose Hidalgo,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Sergio Borasino,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Martin Kern,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Juan  Wu,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Sergio Almallo,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Sergio Borasino,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Martin Kern,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando De la Flor,  Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Victor Gobitz,  Fernando Harten,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Carlos Caro,  Daniel Vaillant,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Victor Gobitz,  Fernando Harten,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Daniel Vaillant,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Jorge  Yzusqui,  Victor Gobitz,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Santiago Reyna,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan  Wu,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>MANOLO VEGA</t>
   </si>
   <si>
-    <t>2017 - 14/11/2017</t>
+    <t>2018 - 01/01/2018</t>
   </si>
   <si>
     <t>Top Executive</t>
@@ -2611,7 +1977,7 @@
     <row r="4" spans="1:24" customHeight="1" ht="46.5">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2807,13 +2173,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="69">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C9" s="70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" s="71">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E9" s="72" t="str">
         <f>B9+C9</f>
@@ -2824,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="74">
         <v>0</v>
@@ -2849,13 +2215,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O9" s="78">
         <v>0</v>
       </c>
       <c r="P9" s="79">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="80">
         <v>0</v>
@@ -2881,13 +2247,13 @@
         <v>27</v>
       </c>
       <c r="B10" s="69">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C10" s="70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D10" s="71">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E10" s="72" t="str">
         <f>B10+C10</f>
@@ -2898,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="74">
         <v>0</v>
@@ -2923,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O10" s="78">
         <v>0</v>
       </c>
       <c r="P10" s="79">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="80">
         <v>0</v>
@@ -2955,13 +2321,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="69">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="C11" s="70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D11" s="71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E11" s="72" t="str">
         <f>B11+C11</f>
@@ -2972,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="74">
         <v>0</v>
@@ -2997,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O11" s="78">
         <v>0</v>
       </c>
       <c r="P11" s="79">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="80">
         <v>0</v>
@@ -3029,13 +2395,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="69">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C12" s="70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E12" s="72" t="str">
         <f>B12+C12</f>
@@ -3046,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="74">
         <v>0</v>
@@ -3071,13 +2437,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="69">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O12" s="78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="79">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="80">
         <v>0</v>
@@ -3106,13 +2472,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="69">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C13" s="70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D13" s="71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E13" s="72" t="str">
         <f>B13+C13</f>
@@ -3123,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" s="74">
         <v>0</v>
@@ -3148,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="69">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O13" s="78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="79">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="80">
         <v>0</v>
@@ -3180,13 +2546,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="69">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="C14" s="70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D14" s="71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E14" s="72" t="str">
         <f>B14+C14</f>
@@ -3197,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="74">
         <v>0</v>
@@ -3222,13 +2588,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O14" s="78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="79">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="80">
         <v>0</v>
@@ -3695,7 +3061,7 @@
     </row>
     <row r="21" spans="1:24" customHeight="1" ht="33.75">
       <c r="A21" s="125">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>
@@ -4516,6 +3882,5 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId_comments_vml1"/>
 </worksheet>
 </file>
--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -14,13 +14,1319 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Eduardo Elias,  Jorge  Yzusqui,  Sandro Tonani,  Marina Morvelli,  Jose del Rio,  Leandro Mariátegui</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Eduardo Elias,  Jorge  Yzusqui,  Sandro Tonani,  Marina Morvelli,  Jose del Rio,  Leandro Mariátegui</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Eduardo Elias,  Jose del Rio,  Leandro Mariátegui,  Jose Hidalgo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose Hidalgo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Jose Hidalgo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Jose Hidalgo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias,  Yoel Chlimper,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi,  Claudia Cornejo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias,  Yoel Chlimper,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala,  Juan Carlos Garcia Vizacaino,  Ana Vera</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi,  Claudia Cornejo,  Alonso  Franco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias,  Yoel Chlimper,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala,  Juan Carlos Garcia Vizacaino,  Ana Vera</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi,  Claudia Cornejo,  Alonso  Franco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias,  Yoel Chlimper,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala,  Juan Carlos Garcia Vizacaino,  Ana Vera</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi,  Claudia Cornejo,  Alonso  Franco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Victor Gobitz,  Fernando Harten,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Carlos Caro,  Daniel Vaillant,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Diego  Roca,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Victor Gobitz,  Fernando Harten,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Daniel Vaillant,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Jorge  Yzusqui,  Victor Gobitz,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Santiago Reyna,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Guillermo Winter,  José Orrego,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Edgardo Vargas,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Percy Castle,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Alberto Morillo,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Yoel Chlimper,  Yoel Chlimper,  Yoel Chlimper,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Edgardo Vargas,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Percy Castle,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Alberto Morillo,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Yoel Chlimper,  Yoel Chlimper,  Yoel Chlimper,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Juan Carlos Garcia Vizacaino,  Ana Vera,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Edgardo Vargas,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Percy Castle,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Alberto Morillo,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Yoel Chlimper,  Yoel Chlimper,  Yoel Chlimper,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Juan Carlos Garcia Vizacaino,  Ana Vera,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Edgardo Vargas,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Percy Castle,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Alberto Morillo,  Jose del Rio</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Yoel Chlimper,  Yoel Chlimper,  Yoel Chlimper,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Juan Carlos Garcia Vizacaino,  Ana Vera,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>MANOLO VEGA</t>
   </si>
   <si>
-    <t>2018 - 01/01/2018</t>
+    <t>2017 - 09/01/2018</t>
   </si>
   <si>
     <t>Top Executive</t>
@@ -1977,7 +3283,7 @@
     <row r="4" spans="1:24" customHeight="1" ht="46.5">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -2173,13 +3479,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="69">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C9" s="70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" s="72" t="str">
         <f>B9+C9</f>
@@ -2190,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="74">
         <v>0</v>
@@ -2215,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O9" s="78">
         <v>0</v>
       </c>
       <c r="P9" s="79">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="80">
         <v>0</v>
@@ -2247,13 +3553,13 @@
         <v>27</v>
       </c>
       <c r="B10" s="69">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C10" s="70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="71">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10" s="72" t="str">
         <f>B10+C10</f>
@@ -2264,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="74">
         <v>0</v>
@@ -2289,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O10" s="78">
         <v>0</v>
       </c>
       <c r="P10" s="79">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="80">
         <v>0</v>
@@ -2321,13 +3627,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="69">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C11" s="70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11" s="71">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E11" s="72" t="str">
         <f>B11+C11</f>
@@ -2338,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="74">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H11" s="74">
         <v>0</v>
@@ -2363,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O11" s="78">
         <v>0</v>
       </c>
       <c r="P11" s="79">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="80">
         <v>0</v>
@@ -2395,13 +3701,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="69">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C12" s="70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D12" s="71">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E12" s="72" t="str">
         <f>B12+C12</f>
@@ -2412,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="74">
         <v>0</v>
@@ -2437,13 +3743,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="69">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O12" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="79">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="80">
         <v>0</v>
@@ -2472,13 +3778,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="69">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="C13" s="70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" s="71">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E13" s="72" t="str">
         <f>B13+C13</f>
@@ -2489,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="74">
         <v>0</v>
@@ -2514,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="69">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O13" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" s="79">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="80">
         <v>0</v>
@@ -2546,13 +3852,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="69">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C14" s="70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" s="71">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E14" s="72" t="str">
         <f>B14+C14</f>
@@ -2563,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="74">
         <v>0</v>
@@ -2588,13 +3894,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="69">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O14" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P14" s="79">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="80">
         <v>0</v>
@@ -2620,13 +3926,13 @@
         <v>33</v>
       </c>
       <c r="B15" s="69">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C15" s="70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" s="71">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E15" s="72" t="str">
         <f>B15+C15</f>
@@ -2637,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" s="74">
         <v>0</v>
@@ -2662,13 +3968,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="69">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="O15" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" s="79">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="80">
         <v>0</v>
@@ -2694,13 +4000,13 @@
         <v>34</v>
       </c>
       <c r="B16" s="69">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="C16" s="70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D16" s="71">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E16" s="72" t="str">
         <f>B16+C16</f>
@@ -2711,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H16" s="74">
         <v>0</v>
@@ -2736,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="69">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O16" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" s="79">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="80">
         <v>0</v>
@@ -2768,13 +4074,13 @@
         <v>35</v>
       </c>
       <c r="B17" s="69">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="C17" s="70">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="71">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E17" s="72" t="str">
         <f>B17+C17</f>
@@ -2785,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" s="74">
         <v>0</v>
@@ -2810,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="69">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O17" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" s="79">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="80">
         <v>0</v>
@@ -2842,13 +4148,13 @@
         <v>36</v>
       </c>
       <c r="B18" s="69">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C18" s="70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D18" s="71">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18" s="72" t="str">
         <f>B18+C18</f>
@@ -2859,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" s="74">
         <v>0</v>
@@ -2884,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="69">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O18" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" s="79">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="80">
         <v>0</v>
@@ -2916,13 +4222,13 @@
         <v>37</v>
       </c>
       <c r="B19" s="69">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C19" s="70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" s="71">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E19" s="72" t="str">
         <f>B19+C19</f>
@@ -2933,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" s="74">
         <v>0</v>
@@ -2958,13 +4264,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="69">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O19" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="79">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="80">
         <v>0</v>
@@ -2990,13 +4296,13 @@
         <v>38</v>
       </c>
       <c r="B20" s="69">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C20" s="70">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D20" s="71">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E20" s="103" t="str">
         <f>B20+C20</f>
@@ -3007,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="70">
         <v>0</v>
@@ -3032,13 +4338,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="69">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O20" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" s="79">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="108">
         <v>0</v>
@@ -3061,7 +4367,7 @@
     </row>
     <row r="21" spans="1:24" customHeight="1" ht="33.75">
       <c r="A21" s="125">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B21" s="125"/>
       <c r="C21" s="125"/>
@@ -3882,5 +5188,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId_comments_vml1"/>
 </worksheet>
 </file>
--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -32,7 +32,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Eduardo Elias,  Jorge  Yzusqui,  Sandro Tonani,  Marina Morvelli,  Jose del Rio,  Leandro Mariátegui</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Eduardo Elias,  Jorge  Yzusqui,  Sandro Tonani,  Marina Morvelli,  Jose del Rio,  Leandro Mariátegui</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Eduardo Elias,  Jorge  Yzusqui,  Sandro Tonani,  Marina Morvelli,  Jose del Rio,  Leandro Mariátegui</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Eduardo Elias,  Jorge  Yzusqui,  Sandro Tonani,  Marina Morvelli,  Jose del Rio,  Leandro Mariátegui</t>
         </r>
       </text>
     </comment>
@@ -112,7 +112,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Eduardo Elias,  Jose del Rio,  Leandro Mariátegui,  Jose Hidalgo</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Mauricio González,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Eduardo Elias,  Jose del Rio,  Leandro Mariátegui,  Jose Hidalgo</t>
         </r>
       </text>
     </comment>
@@ -160,7 +160,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -176,7 +176,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose Hidalgo</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Mauricio González,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose Hidalgo</t>
         </r>
       </text>
     </comment>
@@ -208,7 +208,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -224,7 +224,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Jose Hidalgo</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Mauricio González,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Jose Hidalgo</t>
         </r>
       </text>
     </comment>
@@ -256,7 +256,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
         </r>
       </text>
     </comment>
@@ -272,7 +272,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Jose Hidalgo</t>
+          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Mauricio González,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Jose Hidalgo</t>
         </r>
       </text>
     </comment>
@@ -304,295 +304,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Edgardo Vargas,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias,  Yoel Chlimper,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi,  Claudia Cornejo</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias,  Yoel Chlimper,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala,  Juan Carlos Garcia Vizacaino,  Ana Vera</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi,  Claudia Cornejo,  Alonso  Franco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias,  Yoel Chlimper,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala,  Juan Carlos Garcia Vizacaino,  Ana Vera</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi,  Claudia Cornejo,  Alonso  Franco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Rafael Treistman,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Juan  Wu,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Itamar  Con,  Evangelina Suarez,  Giancarlo Sanguinetti,  Federico Bauer,  Raul Alcalde,  Anibal Clavijo,  Eduardo Elias,  Yoel Chlimper,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala,  Juan Carlos Garcia Vizacaino,  Ana Vera</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi,  Claudia Cornejo,  Alonso  Franco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Fernando Zavala,  Mauricio González,  Ignacio Baena,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Maria Paz Cigaran</t>
+          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Juan  Wu</t>
         </r>
       </text>
     </comment>
@@ -677,102 +389,6 @@
       </text>
     </comment>
     <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +496,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Santiago Reyna,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+          <t xml:space="preserve"> Mauricio González,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -896,7 +512,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio,  Eduardo Elias</t>
         </r>
       </text>
     </comment>
@@ -912,7 +528,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+          <t xml:space="preserve"> Mauricio González,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -944,7 +560,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio,  Eduardo Elias</t>
         </r>
       </text>
     </comment>
@@ -960,7 +576,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
+          <t xml:space="preserve"> Mauricio González,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
         </r>
       </text>
     </comment>
@@ -992,7 +608,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
+          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio,  Eduardo Elias</t>
         </r>
       </text>
     </comment>
@@ -1008,299 +624,11 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti</t>
+          <t xml:space="preserve"> Mauricio González,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
         </r>
       </text>
     </comment>
     <comment ref="O14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Guillermo Winter,  José Orrego,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Edgardo Vargas,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Percy Castle,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Alberto Morillo,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Yoel Chlimper,  Yoel Chlimper,  Yoel Chlimper,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Edgardo Vargas,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Percy Castle,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Alberto Morillo,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Yoel Chlimper,  Yoel Chlimper,  Yoel Chlimper,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Juan Carlos Garcia Vizacaino,  Ana Vera,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Edgardo Vargas,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Percy Castle,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Alberto Morillo,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Yoel Chlimper,  Yoel Chlimper,  Yoel Chlimper,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Juan Carlos Garcia Vizacaino,  Ana Vera,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Edgardo Vargas,  Christian Ponce,  Reynaldo Llosa,  Juan Antonio Rozas,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Carlos Morante,  Luis Rivera,  Jorge  Yzusqui,  Christian Neuhaus,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Jose Hidalgo,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Percy Castle,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Pedro Gomes,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Alberto Morillo,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan  Wu,  Itamar  Con,  Federico Bauer,  Raul Alcalde,  Tomás Vega,  Yoel Chlimper,  Yoel Chlimper,  Yoel Chlimper,  Carlos Caro,  Sergio Borasino,  Anibal Clavijo,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio,  Evangelina Suarez,  Giancarlo Sanguinetti,  Eduardo Elias,  Pablo Seminario,  Diego Herrera,  Gabriel Trelles,  Juan Pablo  Garcia-Bayce,  Luis Arbulu,  Arturo Cassinelli,  Rafael Espinoza,  Juan Carlos Garcia Vizacaino,  Ana Vera,  Alvaro  Arias,  Alvaro Zuñiga,  Felipe Venturo,  Gonzalo Garrido-Lecca,  Jose Antonio Vasquez de Velasco,  Martin Bedoya,  Vasco Masias,  Pedro Jose De Zavala</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1326,7 +654,7 @@
     <t>MANOLO VEGA</t>
   </si>
   <si>
-    <t>2017 - 09/01/2018</t>
+    <t>2017 - 23/01/2018</t>
   </si>
   <si>
     <t>Top Executive</t>
@@ -3479,13 +2807,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="69">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C9" s="70">
         <v>7</v>
       </c>
       <c r="D9" s="71">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E9" s="72" t="str">
         <f>B9+C9</f>
@@ -3553,13 +2881,13 @@
         <v>27</v>
       </c>
       <c r="B10" s="69">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C10" s="70">
         <v>7</v>
       </c>
       <c r="D10" s="71">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E10" s="72" t="str">
         <f>B10+C10</f>
@@ -3627,13 +2955,13 @@
         <v>28</v>
       </c>
       <c r="B11" s="69">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C11" s="70">
         <v>7</v>
       </c>
       <c r="D11" s="71">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" s="72" t="str">
         <f>B11+C11</f>
@@ -3675,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="80">
         <v>0</v>
@@ -3701,13 +3029,13 @@
         <v>29</v>
       </c>
       <c r="B12" s="69">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C12" s="70">
         <v>7</v>
       </c>
       <c r="D12" s="71">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E12" s="72" t="str">
         <f>B12+C12</f>
@@ -3743,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="69">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O12" s="78">
         <v>1</v>
       </c>
       <c r="P12" s="79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="80">
         <v>0</v>
@@ -3778,13 +3106,13 @@
         <v>31</v>
       </c>
       <c r="B13" s="69">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="70">
         <v>7</v>
       </c>
       <c r="D13" s="71">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E13" s="72" t="str">
         <f>B13+C13</f>
@@ -3820,13 +3148,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="69">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O13" s="78">
         <v>2</v>
       </c>
       <c r="P13" s="79">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="80">
         <v>0</v>
@@ -3852,13 +3180,13 @@
         <v>32</v>
       </c>
       <c r="B14" s="69">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C14" s="70">
         <v>7</v>
       </c>
       <c r="D14" s="71">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E14" s="72" t="str">
         <f>B14+C14</f>
@@ -3894,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="69">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" s="78">
         <v>2</v>
       </c>
       <c r="P14" s="79">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="80">
         <v>0</v>
@@ -3926,13 +3254,13 @@
         <v>33</v>
       </c>
       <c r="B15" s="69">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="C15" s="70">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D15" s="71">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E15" s="72" t="str">
         <f>B15+C15</f>
@@ -3943,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H15" s="74">
         <v>0</v>
@@ -3968,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="69">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="O15" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" s="79">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="80">
         <v>0</v>
@@ -4000,13 +3328,13 @@
         <v>34</v>
       </c>
       <c r="B16" s="69">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="C16" s="70">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D16" s="71">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E16" s="72" t="str">
         <f>B16+C16</f>
@@ -4017,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" s="74">
         <v>0</v>
@@ -4042,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="69">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O16" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" s="79">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="80">
         <v>0</v>
@@ -4074,13 +3402,13 @@
         <v>35</v>
       </c>
       <c r="B17" s="69">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="C17" s="70">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D17" s="71">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E17" s="72" t="str">
         <f>B17+C17</f>
@@ -4091,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" s="74">
         <v>0</v>
@@ -4116,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="69">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O17" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="79">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="80">
         <v>0</v>
@@ -4148,13 +3476,13 @@
         <v>36</v>
       </c>
       <c r="B18" s="69">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="C18" s="70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D18" s="71">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E18" s="72" t="str">
         <f>B18+C18</f>
@@ -4165,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="74">
         <v>0</v>
@@ -4190,13 +3518,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="69">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O18" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" s="79">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="80">
         <v>0</v>
@@ -4222,13 +3550,13 @@
         <v>37</v>
       </c>
       <c r="B19" s="69">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="C19" s="70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" s="71">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E19" s="72" t="str">
         <f>B19+C19</f>
@@ -4239,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H19" s="74">
         <v>0</v>
@@ -4264,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="69">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O19" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" s="79">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="80">
         <v>0</v>
@@ -4296,13 +3624,13 @@
         <v>38</v>
       </c>
       <c r="B20" s="69">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="C20" s="70">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D20" s="71">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E20" s="103" t="str">
         <f>B20+C20</f>
@@ -4313,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" s="70">
         <v>0</v>
@@ -4338,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="69">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O20" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="79">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="108">
         <v>0</v>

--- a/public_html/admin/reportesgenerados/Memberships-87.xlsx
+++ b/public_html/admin/reportesgenerados/Memberships-87.xlsx
@@ -32,7 +32,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Eduardo Elias,  Jorge  Yzusqui,  Sandro Tonani,  Marina Morvelli,  Jose del Rio,  Leandro Mariátegui</t>
+          <t xml:space="preserve"> Emérico Pedraza,  Salomón Abedrop,  Carlos Fayad,  Arturo Marroquín,  José Angel Garza,  Oscar  de la Peña,  Antonio Dewey</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Marco Barraza,  José Luis Valdes</t>
         </r>
       </text>
     </comment>
@@ -64,7 +64,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Juan Ramón Cardenas,  Felipe Bueno,  Juan Fernando Aguirre</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Eduardo Elias,  Jorge  Yzusqui,  Sandro Tonani,  Marina Morvelli,  Jose del Rio,  Leandro Mariátegui</t>
+          <t xml:space="preserve"> Emérico Pedraza,  Salomón Abedrop,  Carlos Fayad,  Arturo Marroquín,  José Angel Garza,  Oscar  de la Peña,  Antonio Dewey</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Marco Barraza,  José Luis Valdes</t>
         </r>
       </text>
     </comment>
@@ -112,7 +112,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Juan Ramón Cardenas,  Felipe Bueno,  Juan Fernando Aguirre</t>
         </r>
       </text>
     </comment>
@@ -128,7 +128,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Mauricio González,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Alejandro Ormeño,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Eduardo Elias,  Jose del Rio,  Leandro Mariátegui,  Jose Hidalgo</t>
+          <t xml:space="preserve"> Emérico Pedraza,  Salomón Abedrop,  Carlos Fayad,  Arturo Marroquín,  José Angel Garza,  Oscar  de la Peña,  Antonio Dewey,  Manuel González</t>
         </r>
       </text>
     </comment>
@@ -144,7 +144,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Marco Barraza,  José Luis Valdes</t>
         </r>
       </text>
     </comment>
@@ -160,7 +160,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Juan Ramón Cardenas,  Felipe Bueno,  Juan Fernando Aguirre</t>
         </r>
       </text>
     </comment>
@@ -176,7 +176,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Mauricio González,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Jose Hidalgo</t>
+          <t xml:space="preserve"> Emérico Pedraza,  Salomón Abedrop,  Carlos Fayad,  Arturo Marroquín,  José Angel Garza,  Oscar  de la Peña,  Antonio Dewey,  Manuel González,  Luis Aguilar,  Roberto Balderas</t>
         </r>
       </text>
     </comment>
@@ -192,7 +192,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Marco Barraza,  José Luis Valdes</t>
         </r>
       </text>
     </comment>
@@ -208,7 +208,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Juan Ramón Cardenas,  Felipe Bueno,  Juan Fernando Aguirre</t>
         </r>
       </text>
     </comment>
@@ -224,7 +224,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Mauricio González,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Carlos Campillo,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Jose Hidalgo</t>
+          <t xml:space="preserve"> Emérico Pedraza,  Salomón Abedrop,  Carlos Fayad,  Arturo Marroquín,  José Angel Garza,  Oscar  de la Peña,  Antonio Dewey,  Manuel González,  Luis Aguilar,  Roberto Balderas</t>
         </r>
       </text>
     </comment>
@@ -240,7 +240,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Marco Barraza,  José Luis Valdes</t>
         </r>
       </text>
     </comment>
@@ -256,7 +256,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga</t>
+          <t xml:space="preserve"> Juan Ramón Cardenas,  Felipe Bueno,  Juan Fernando Aguirre</t>
         </r>
       </text>
     </comment>
@@ -272,7 +272,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Juan Alberto Forsyth,  Jorge Luis Feliú,  Mauricio González,  Edgardo Vargas,  Guy Fort,  Juan Gabriel Reyes,  Jaime Yoshiyama,  Alberto Pinto,  José Borda,  Luis Vargas,  Ricardo Arce,  Tomás Vega,  Fernando Baravalle,  José Ackerman,  José Antonio Lizárraga,  Mario Campodónico,  Ramón Larrea,  Manuel Gallofré,  Félix Antelo,  Carlos Mujica,  Michel Steiert,  Marco Peschiera,  Alfonzo Vásquez,  Diego Rey,  Jeanine Mellet,  Eduardo Carriquiry,  Juan Antonio Rozas,  Gonzalo Van Oordt,  Willard Manrique,  Javier Zegarra,  Bruno Novella,  Carlos Caro,  Luis Antonio Aspillaga,  Ricardo Maldonado,  Maritza Reátegui,  Carl Rooth,  Roberto Taboada,  Carlos Morante,  Alejandro Amaya,  Percy Ortiz,  Jaime Atun,  Santiago Reyna,  Luis Rivera,  Raúl Espinoza,  Christian Neuhaus,  Javier Delgado,  Diego Aguirre,  Alfonso Panizo,  Daniel Linares,  Igor Salazar,  Mirella Velásquez,  Alvaro Merino Reyna,  Miryam Mesía,  Daniel Vaillant,  Jorge Carbajal,  Enrique Garland,  Fernando Herrera,  Guillermo Winter,  José Orrego,  Giovanni Klein,  Mónica Eyzaguirre,  Javier Draxl,  Percy Castle,  Ralph Guerra,  Luis Miguel Peña,  Claudia Medina,  Edgardo Malpartida,  Guillermo León Velarde,  Rohit Rao,  Victor Vignale,  Corina Segundo,  Jorge Fernández,  Eduardo Arnillas,  Raúl Barrios,  Pedro Gomes,  Alfonso de la Piedra,  Olazhir Ledezma,  Marie Rosso,  Madeleine Osterling,  Verónica Arbulú,  Anita Belaúnde,  Frida Delgado,  Ursula Mercado,  Ana María Campos,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Sergio Borasino,  Martin Kern,  Maria Haydee Zegarra,  Jose Hidalgo</t>
+          <t xml:space="preserve"> Emérico Pedraza,  Salomón Abedrop,  Carlos Fayad,  Arturo Marroquín,  José Angel Garza,  Oscar  de la Peña,  Antonio Dewey,  Manuel González,  Luis Aguilar,  Roberto Balderas</t>
         </r>
       </text>
     </comment>
@@ -288,7 +288,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Jorge Velaochaga,  Eric Rey de Castro,  Diana Rake,  Piero Bengoa,  Gonzalo Barandiarán,  Patricia Torres,  Nabil Katabi</t>
+          <t xml:space="preserve"> Marco Barraza,  José Luis Valdes</t>
         </r>
       </text>
     </comment>
@@ -304,183 +304,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Eduardo Wichtel,  Michael Michell,  Jorge Ramos,  Humberto Chávez,  Javier Calvo-Pérez,  Rolando Giha,  Fernando Zavala,  Ignacio Baena,  Rafael Treistman,  Bruno Giuffra,  Emilio Rodríguez-Larraín,  Omar Goyenechea,  Felipe Cantuarias,  Sergio Almallo,  Harold Mongrut,  Boris Quimper,  Carlos Cornejo,  Katherina Exebio,  Carlos Guiulfo,  Juan Carlos Fisher,  Gisella Ocampo,  Ana Sofía Valdivia,  Martin Aspillaga,  Juan  Wu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado,  Mauricio Marchese</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Alejandro Baravalle,  Juan Manuel Lopez,  Raymundo Delgado</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Victor Gobitz,  Fernando Harten,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Carlos Caro,  Daniel Vaillant,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Victor Gobitz,  Fernando Harten,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Tomás Vega,  Carlos Caro,  Daniel Vaillant,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Jorge  Yzusqui,  Victor Gobitz,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli</t>
+          <t xml:space="preserve"> Juan Ramón Cardenas,  Felipe Bueno,  Juan Fernando Aguirre</t>
         </r>
       </text>
     </comment>
@@ -496,23 +320,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Mauricio González,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio,  Eduardo Elias</t>
+          <t xml:space="preserve"> Manuel González</t>
         </r>
       </text>
     </comment>
@@ -528,39 +336,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Mauricio González,  Tomás Vega,  Carlos Caro,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio,  Eduardo Elias</t>
+          <t xml:space="preserve"> Manuel González,  Luis Aguilar,  Roberto Balderas</t>
         </r>
       </text>
     </comment>
@@ -576,39 +352,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Mauricio González,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Eduardo Elias,  Juan Fernando Correa,  Robert McDonald,  Reynaldo Llosa,  Maria Teresa Normand,  Franco Pipoli,  Ramiro Espinosa,  Alejandro Ormeño,  Jorge  Yzusqui,  Carlos Campillo,  Victor Gobitz,  Leandro Mariátegui,  Fernando Harten,  Sandro Tonani,  Fernando Gonzalez,  Alejandro Harmsen,  Walter Funcke,  Pauline Barrón,  Marina Morvelli,  Jose del Rio,  Eduardo Elias</t>
+          <t xml:space="preserve"> Manuel González,  Luis Aguilar,  Roberto Balderas</t>
         </r>
       </text>
     </comment>
@@ -624,23 +368,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve"> Mauricio González,  Tomás Vega,  Carlos Caro,  Sergio Borasino,  Santiago Reyna,  Luis Rivera,  Daniel Vaillant,  Jorge Carbajal,  Jose Hidalgo,  Luis Miguel Peña,  Martin Kern,  Alfonso de la Piedra,  Olazhir Ledezma,  Julia Sobrevilla,  Maria Haydee Zegarra,  Alberto Morillo,  Craig Smith,  Fernando Farah,  José Antonio Roca,  Franjo Kurtovic,  Simón Fishman,  José Cuenco,  Diego  Roca,  Jose del Rio</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve"> Mauricio Marchese,  Ronald Añazco</t>
+          <t xml:space="preserve"> Manuel González,  Luis Aguilar,  Roberto Balderas</t>
         </r>
       </text>
     </comment>
@@ -649,12 +377,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
-    <t>MANOLO VEGA</t>
-  </si>
-  <si>
-    <t>2017 - 23/01/2018</t>
+    <t>2017 - 05/02/2018</t>
   </si>
   <si>
     <t>Top Executive</t>
@@ -2542,9 +2267,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" customHeight="1" ht="33.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
@@ -2625,7 +2348,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -2637,33 +2360,33 @@
     <row r="5" spans="1:24" customHeight="1" ht="27.75">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
       <c r="L5" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" s="23"/>
       <c r="P5" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="25"/>
       <c r="R5" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S5" s="27"/>
       <c r="T5" s="28"/>
@@ -2671,40 +2394,40 @@
     <row r="6" spans="1:24" customHeight="1" ht="22.5" s="139" customFormat="1">
       <c r="A6" s="126"/>
       <c r="B6" s="127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="D6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="E6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="F6" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="131" t="s">
-        <v>12</v>
-      </c>
       <c r="G6" s="132" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="I6" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="134" t="s">
+      <c r="J6" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="K6" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="136" t="s">
-        <v>12</v>
-      </c>
       <c r="L6" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="138" t="s">
         <v>11</v>
-      </c>
-      <c r="M6" s="138" t="s">
-        <v>12</v>
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="30"/>
@@ -2716,64 +2439,64 @@
     </row>
     <row r="7" spans="1:24" customHeight="1" ht="15.95">
       <c r="A7" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="E7" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="G7" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="42" t="s">
+      <c r="K7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="L7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="M7" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="45" t="s">
+      <c r="N7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="46" t="s">
+      <c r="O7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="47" t="s">
-        <v>24</v>
-      </c>
       <c r="P7" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="48" t="s">
-        <v>24</v>
-      </c>
       <c r="R7" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="50" t="s">
-        <v>24</v>
-      </c>
       <c r="T7" s="51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:24" customHeight="1" ht="25.5">
@@ -2782,10 +2505,10 @@
       <c r="C8" s="54"/>
       <c r="D8" s="55"/>
       <c r="E8" s="56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="54"/>
@@ -2804,16 +2527,16 @@
     </row>
     <row r="9" spans="1:24" customHeight="1" ht="21">
       <c r="A9" s="68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="69">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="C9" s="70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" s="71">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E9" s="72" t="str">
         <f>B9+C9</f>
@@ -2824,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="74">
         <v>0</v>
@@ -2849,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O9" s="78">
         <v>0</v>
       </c>
       <c r="P9" s="79">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="80">
         <v>0</v>
@@ -2878,16 +2601,16 @@
     </row>
     <row r="10" spans="1:24" customHeight="1" ht="21">
       <c r="A10" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="69">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C10" s="70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="71">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E10" s="72" t="str">
         <f>B10+C10</f>
@@ -2898,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="74">
         <v>0</v>
@@ -2923,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="69">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O10" s="78">
         <v>0</v>
       </c>
       <c r="P10" s="79">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="80">
         <v>0</v>
@@ -2952,16 +2675,16 @@
     </row>
     <row r="11" spans="1:24" customHeight="1" ht="21">
       <c r="A11" s="68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="69">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="C11" s="70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D11" s="71">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E11" s="72" t="str">
         <f>B11+C11</f>
@@ -2972,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="74">
         <v>0</v>
@@ -2997,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="69">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O11" s="78">
         <v>0</v>
       </c>
       <c r="P11" s="79">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="80">
         <v>0</v>
@@ -3026,16 +2749,16 @@
     </row>
     <row r="12" spans="1:24" customHeight="1" ht="21">
       <c r="A12" s="68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="69">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="C12" s="70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" s="71">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E12" s="72" t="str">
         <f>B12+C12</f>
@@ -3046,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" s="74">
         <v>0</v>
@@ -3071,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O12" s="78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="79">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="80">
         <v>0</v>
@@ -3095,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V12" s="84"/>
       <c r="W12" s="85"/>
@@ -3103,16 +2826,16 @@
     </row>
     <row r="13" spans="1:24" customHeight="1" ht="21">
       <c r="A13" s="68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="69">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="C13" s="70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" s="71">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E13" s="72" t="str">
         <f>B13+C13</f>
@@ -3123,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="74">
         <v>0</v>
@@ -3148,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="N13" s="69">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="O13" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="79">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="80">
         <v>0</v>
@@ -3177,16 +2900,16 @@
     </row>
     <row r="14" spans="1:24" customHeight="1" ht="21">
       <c r="A14" s="68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="69">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C14" s="70">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" s="71">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E14" s="72" t="str">
         <f>B14+C14</f>
@@ -3197,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="74">
         <v>0</v>
@@ -3222,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="69">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="O14" s="78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" s="79">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="80">
         <v>0</v>
@@ -3251,7 +2974,7 @@
     </row>
     <row r="15" spans="1:24" customHeight="1" ht="21">
       <c r="A15" s="68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="69">
         <v>0</v>
@@ -3325,7 +3048,7 @@
     </row>
     <row r="16" spans="1:24" customHeight="1" ht="21">
       <c r="A16" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="69">
         <v>0</v>
@@ -3399,7 +3122,7 @@
     </row>
     <row r="17" spans="1:24" customHeight="1" ht="21">
       <c r="A17" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="69">
         <v>0</v>
@@ -3473,7 +3196,7 @@
     </row>
     <row r="18" spans="1:24" customHeight="1" ht="21">
       <c r="A18" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="69">
         <v>0</v>
@@ -3547,7 +3270,7 @@
     </row>
     <row r="19" spans="1:24" customHeight="1" ht="21">
       <c r="A19" s="68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="69">
         <v>0</v>
@@ -3621,7 +3344,7 @@
     </row>
     <row r="20" spans="1:24" customHeight="1" ht="21">
       <c r="A20" s="102" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="69">
         <v>0</v>
@@ -3719,7 +3442,7 @@
     </row>
     <row r="22" spans="1:24" customHeight="1" ht="21">
       <c r="A22" s="112" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="113">
         <v>0</v>
@@ -3793,7 +3516,7 @@
     </row>
     <row r="23" spans="1:24" customHeight="1" ht="21">
       <c r="A23" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="69">
         <v>0</v>
@@ -3867,7 +3590,7 @@
     </row>
     <row r="24" spans="1:24" customHeight="1" ht="21">
       <c r="A24" s="68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="69">
         <v>0</v>
@@ -3941,7 +3664,7 @@
     </row>
     <row r="25" spans="1:24" customHeight="1" ht="21">
       <c r="A25" s="68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="69">
         <v>0</v>
@@ -4010,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V25" s="84"/>
       <c r="W25" s="85"/>
@@ -4018,7 +3741,7 @@
     </row>
     <row r="26" spans="1:24" customHeight="1" ht="21" hidden="true">
       <c r="A26" s="68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="69"/>
       <c r="C26" s="70"/>
@@ -4074,7 +3797,7 @@
     </row>
     <row r="27" spans="1:24" customHeight="1" ht="21" hidden="true">
       <c r="A27" s="68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="69"/>
       <c r="C27" s="70"/>
@@ -4130,7 +3853,7 @@
     </row>
     <row r="28" spans="1:24" customHeight="1" ht="21" hidden="true">
       <c r="A28" s="68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="69"/>
       <c r="C28" s="70"/>
@@ -4186,7 +3909,7 @@
     </row>
     <row r="29" spans="1:24" customHeight="1" ht="21" hidden="true">
       <c r="A29" s="68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="69"/>
       <c r="C29" s="70"/>
@@ -4242,7 +3965,7 @@
     </row>
     <row r="30" spans="1:24" customHeight="1" ht="21" hidden="true">
       <c r="A30" s="68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="69"/>
       <c r="C30" s="70"/>
@@ -4298,7 +4021,7 @@
     </row>
     <row r="31" spans="1:24" customHeight="1" ht="21" hidden="true">
       <c r="A31" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="69"/>
       <c r="C31" s="70"/>
@@ -4354,7 +4077,7 @@
     </row>
     <row r="32" spans="1:24" customHeight="1" ht="21" hidden="true">
       <c r="A32" s="68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="69"/>
       <c r="C32" s="70"/>
@@ -4410,7 +4133,7 @@
     </row>
     <row r="33" spans="1:24" customHeight="1" ht="21" hidden="true">
       <c r="A33" s="87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="88"/>
       <c r="C33" s="89"/>
@@ -4466,12 +4189,12 @@
     </row>
     <row r="34" spans="1:24">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
